--- a/B_Source/sieuthixehoi/TaskList - Website Oto.xlsx
+++ b/B_Source/sieuthixehoi/TaskList - Website Oto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="8250"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -71,24 +71,8 @@
 - Liên hệ</t>
   </si>
   <si>
-    <t>Trong mục hiển thị danh sách thì hiển thị 4 cột sau với tên cột là:  
-- Thứ tự (ko phải là ID của danh mục trong DB nha, bắt đầu đếm từ 1,2,3 -&gt; n)
-- Dòng xe (tương ứng cột "Tên")
-- Hãng xe (tương ứng cột "danh mục cha") --&gt; cái này ko hiển thị số ID của danh mục cha, mà phải hiển thị tên của danh mục cha, có thể xem ở phần chuyên mục của UNC
-- Sửa/Xóa (tương ứng cho cột "Action")</t>
-  </si>
-  <si>
     <t>Sản phẩm
 (Xe)</t>
-  </si>
-  <si>
-    <t>Trong list sản phẩm thì hiển thị các cột theo thứ tự sau:
-- Thứ tự 
-- Hình ảnh
-- Tên
-- Dòng xe (dựa theo xe thuộc danh mục nào, có thể tham khảo tin tức và chuyên mục ở UNC, hiển thị tên, ko được hiển thị ID của danh mục)
-- Giá
-- Sửa/Xóa</t>
   </si>
   <si>
     <t>Xóa phần hãng sản xuất (xóa xả DB và xóa ở phần insert/edit xe)</t>
@@ -126,15 +110,80 @@
   <si>
     <t>Thực hiện paging cho phần sản phẩm - tham khảo paging ở unc</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Trong mục hiển thị danh sách thì hiển thị 4 cột sau với tên cột là:  
+- Thứ tự (ko phải là ID của danh mục trong DB nha, bắt đầu đếm từ 1,2,3 -&gt; n)
+- Dòng xe (tương ứng cột "Tên")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Hãng xe (tương ứng cột "danh mục cha") --&gt; cái này ko hiển thị số ID của danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cha, mà phải hiển thị tên của danh mục cha, có thể xem ở phần chuyên mục của UNC
+- Sửa/Xóa (tương ứng cho cột "Action")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong list sản phẩm thì hiển thị các cột theo thứ tự sau:
+- Thứ tự 
+- Hình ảnh
+- Tên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Dòng xe (dựa theo xe thuộc danh mục nào, có thể tham khảo tin tức và chuyên mục ở UNC, hiển thị tên, ko được hiển thị ID của danh mục)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Giá
+- Sửa/Xóa</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +200,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -309,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -375,6 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +527,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -500,7 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -697,7 +757,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -710,7 +770,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -721,7 +781,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -732,7 +792,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="5" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -761,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="5" customFormat="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -772,14 +832,14 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="171">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -794,7 +854,7 @@
       <c r="G6" s="10"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="99.75">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -802,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -816,13 +876,13 @@
       <c r="G7" s="10"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.5">
       <c r="A8" s="9">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
+      <c r="C8" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -836,15 +896,15 @@
       <c r="G8" s="10"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="114">
       <c r="A9" s="9">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -858,13 +918,13 @@
       <c r="G9" s="10"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="8" customFormat="1">
       <c r="A10" s="9">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -878,11 +938,11 @@
       <c r="G10" s="10"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="28.5">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
+      <c r="C11" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -896,11 +956,11 @@
       <c r="G11" s="10"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="8" customFormat="1">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -914,15 +974,15 @@
       <c r="G12" s="10"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="85.5">
       <c r="A13" s="9">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -936,13 +996,13 @@
       <c r="G13" s="10"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="28.5">
       <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
+      <c r="C14" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
@@ -956,15 +1016,15 @@
       <c r="G14" s="10"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="8" customFormat="1">
       <c r="A15" s="9">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -978,13 +1038,13 @@
       <c r="G15" s="10"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5">
       <c r="A16" s="9">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
+      <c r="C16" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -998,7 +1058,7 @@
       <c r="G16" s="10"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="8" customFormat="1">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -1009,7 +1069,7 @@
       <c r="G17" s="10"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="8" customFormat="1">
       <c r="A18" s="9">
         <v>11</v>
       </c>
@@ -1020,7 +1080,7 @@
       <c r="G18" s="10"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="8" customFormat="1">
       <c r="A19" s="9">
         <v>12</v>
       </c>
@@ -1031,7 +1091,7 @@
       <c r="G19" s="10"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="8" customFormat="1">
       <c r="A20" s="9">
         <v>13</v>
       </c>
@@ -1042,7 +1102,7 @@
       <c r="G20" s="10"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="8" customFormat="1">
       <c r="A21" s="9">
         <v>14</v>
       </c>
@@ -1053,7 +1113,7 @@
       <c r="G21" s="10"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="8" customFormat="1">
       <c r="A22" s="9">
         <v>15</v>
       </c>
@@ -1064,7 +1124,7 @@
       <c r="G22" s="10"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="8" customFormat="1">
       <c r="A23" s="9">
         <v>16</v>
       </c>
@@ -1075,7 +1135,7 @@
       <c r="G23" s="10"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="8" customFormat="1">
       <c r="A24" s="9">
         <v>17</v>
       </c>
@@ -1086,7 +1146,7 @@
       <c r="G24" s="10"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="8" customFormat="1">
       <c r="A25" s="9">
         <v>18</v>
       </c>
@@ -1097,7 +1157,7 @@
       <c r="G25" s="10"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="8" customFormat="1">
       <c r="A26" s="9">
         <v>19</v>
       </c>
@@ -1108,7 +1168,7 @@
       <c r="G26" s="10"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="8" customFormat="1">
       <c r="A27" s="9">
         <v>20</v>
       </c>
@@ -1119,7 +1179,7 @@
       <c r="G27" s="10"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="D28" s="4"/>
@@ -1128,7 +1188,7 @@
       <c r="G28" s="10"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="8" customFormat="1">
       <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="D29" s="4"/>
@@ -1137,7 +1197,7 @@
       <c r="G29" s="10"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="8" customFormat="1">
       <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="D30" s="4"/>
@@ -1146,7 +1206,7 @@
       <c r="G30" s="10"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="8" customFormat="1">
       <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="D31" s="4"/>
@@ -1155,7 +1215,7 @@
       <c r="G31" s="10"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="8" customFormat="1">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="D32" s="4"/>
@@ -1164,7 +1224,7 @@
       <c r="G32" s="10"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="8" customFormat="1">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="D33" s="4"/>
@@ -1173,7 +1233,7 @@
       <c r="G33" s="10"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="8" customFormat="1">
       <c r="A34" s="9"/>
       <c r="B34" s="7"/>
       <c r="D34" s="4"/>
@@ -1182,7 +1242,7 @@
       <c r="G34" s="10"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="D35" s="4"/>
@@ -1191,7 +1251,7 @@
       <c r="G35" s="10"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="8" customFormat="1">
       <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="D36" s="4"/>
@@ -1200,7 +1260,7 @@
       <c r="G36" s="10"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="8" customFormat="1">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="D37" s="4"/>
@@ -1209,7 +1269,7 @@
       <c r="G37" s="10"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="8" customFormat="1">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="D38" s="4"/>
@@ -1218,7 +1278,7 @@
       <c r="G38" s="10"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="8" customFormat="1">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="D39" s="4"/>
@@ -1227,7 +1287,7 @@
       <c r="G39" s="10"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="8" customFormat="1">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="D40" s="4"/>
@@ -1236,7 +1296,7 @@
       <c r="G40" s="10"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="8" customFormat="1">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="D41" s="4"/>
@@ -1245,7 +1305,7 @@
       <c r="G41" s="10"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="D42" s="4"/>
@@ -1254,7 +1314,7 @@
       <c r="G42" s="10"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="8" customFormat="1">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="D43" s="4"/>
@@ -1263,7 +1323,7 @@
       <c r="G43" s="10"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="8" customFormat="1">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="D44" s="4"/>
@@ -1272,7 +1332,7 @@
       <c r="G44" s="10"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="8" customFormat="1">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="D45" s="4"/>
@@ -1281,7 +1341,7 @@
       <c r="G45" s="10"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="8" customFormat="1">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="D46" s="4"/>
@@ -1290,7 +1350,7 @@
       <c r="G46" s="10"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="8" customFormat="1">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="D47" s="4"/>
@@ -1299,7 +1359,7 @@
       <c r="G47" s="10"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="8" customFormat="1">
       <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="D48" s="4"/>
@@ -1308,7 +1368,7 @@
       <c r="G48" s="10"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="8" customFormat="1">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="D49" s="4"/>
@@ -1317,7 +1377,7 @@
       <c r="G49" s="10"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="8" customFormat="1">
       <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="D50" s="4"/>
@@ -1326,7 +1386,7 @@
       <c r="G50" s="10"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="8" customFormat="1">
       <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="D51" s="4"/>
@@ -1335,7 +1395,7 @@
       <c r="G51" s="10"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="8" customFormat="1">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="D52" s="4"/>
@@ -1344,7 +1404,7 @@
       <c r="G52" s="10"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="8" customFormat="1">
       <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="D53" s="4"/>
@@ -1353,7 +1413,7 @@
       <c r="G53" s="10"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="8" customFormat="1">
       <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="D54" s="4"/>
@@ -1362,7 +1422,7 @@
       <c r="G54" s="10"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="8" customFormat="1">
       <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="D55" s="4"/>
@@ -1371,7 +1431,7 @@
       <c r="G55" s="10"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="8" customFormat="1">
       <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="D56" s="4"/>
@@ -1380,7 +1440,7 @@
       <c r="G56" s="10"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="8" customFormat="1">
       <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="D57" s="4"/>
@@ -1389,7 +1449,7 @@
       <c r="G57" s="10"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="8" customFormat="1">
       <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="D58" s="4"/>
@@ -1398,7 +1458,7 @@
       <c r="G58" s="10"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="8" customFormat="1">
       <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="D59" s="4"/>
@@ -1407,7 +1467,7 @@
       <c r="G59" s="10"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="8" customFormat="1">
       <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="D60" s="4"/>
@@ -1416,7 +1476,7 @@
       <c r="G60" s="10"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="8" customFormat="1">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="D61" s="4"/>
@@ -1425,7 +1485,7 @@
       <c r="G61" s="10"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="8" customFormat="1">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="D62" s="4"/>
@@ -1434,7 +1494,7 @@
       <c r="G62" s="10"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="8" customFormat="1">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="D63" s="4"/>
@@ -1443,7 +1503,7 @@
       <c r="G63" s="10"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="8" customFormat="1">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="D64" s="4"/>
@@ -1452,7 +1512,7 @@
       <c r="G64" s="10"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="8" customFormat="1">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="D65" s="4"/>
@@ -1461,7 +1521,7 @@
       <c r="G65" s="10"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="8" customFormat="1">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="D66" s="4"/>
@@ -1470,7 +1530,7 @@
       <c r="G66" s="10"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="8" customFormat="1">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="D67" s="4"/>
@@ -1479,7 +1539,7 @@
       <c r="G67" s="10"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="8" customFormat="1">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="D68" s="4"/>
@@ -1488,7 +1548,7 @@
       <c r="G68" s="10"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="8" customFormat="1">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="D69" s="4"/>
@@ -1497,7 +1557,7 @@
       <c r="G69" s="10"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="8" customFormat="1">
       <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="D70" s="4"/>
@@ -1506,7 +1566,7 @@
       <c r="G70" s="10"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="8" customFormat="1">
       <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="D71" s="4"/>
@@ -1515,7 +1575,7 @@
       <c r="G71" s="10"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="8" customFormat="1">
       <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="D72" s="4"/>
@@ -1524,7 +1584,7 @@
       <c r="G72" s="10"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="8" customFormat="1">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="D73" s="4"/>
@@ -1533,7 +1593,7 @@
       <c r="G73" s="10"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="8" customFormat="1">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="D74" s="4"/>
@@ -1542,7 +1602,7 @@
       <c r="G74" s="10"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="8" customFormat="1">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="D75" s="4"/>
@@ -1551,7 +1611,7 @@
       <c r="G75" s="10"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="8" customFormat="1">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="D76" s="4"/>
@@ -1560,7 +1620,7 @@
       <c r="G76" s="10"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="8" customFormat="1">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="D77" s="4"/>
@@ -1569,7 +1629,7 @@
       <c r="G77" s="10"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="8" customFormat="1">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="D78" s="4"/>
@@ -1578,7 +1638,7 @@
       <c r="G78" s="10"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="8" customFormat="1">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="D79" s="4"/>
@@ -1587,7 +1647,7 @@
       <c r="G79" s="10"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="8" customFormat="1">
       <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="D80" s="4"/>
@@ -1596,7 +1656,7 @@
       <c r="G80" s="10"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="8" customFormat="1">
       <c r="A81" s="9"/>
       <c r="B81" s="7"/>
       <c r="D81" s="4"/>
@@ -1605,7 +1665,7 @@
       <c r="G81" s="10"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="8" customFormat="1">
       <c r="A82" s="9"/>
       <c r="B82" s="7"/>
       <c r="D82" s="4"/>
@@ -1614,7 +1674,7 @@
       <c r="G82" s="10"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="8" customFormat="1">
       <c r="A83" s="9"/>
       <c r="B83" s="7"/>
       <c r="D83" s="4"/>
@@ -1623,7 +1683,7 @@
       <c r="G83" s="10"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="8" customFormat="1">
       <c r="A84" s="9"/>
       <c r="B84" s="7"/>
       <c r="D84" s="4"/>
@@ -1632,7 +1692,7 @@
       <c r="G84" s="10"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="8" customFormat="1">
       <c r="A85" s="9"/>
       <c r="B85" s="7"/>
       <c r="D85" s="4"/>
@@ -1641,7 +1701,7 @@
       <c r="G85" s="10"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="8" customFormat="1">
       <c r="A86" s="9"/>
       <c r="B86" s="7"/>
       <c r="D86" s="4"/>
@@ -1650,7 +1710,7 @@
       <c r="G86" s="10"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="8" customFormat="1">
       <c r="A87" s="9"/>
       <c r="B87" s="7"/>
       <c r="D87" s="4"/>
@@ -1659,7 +1719,7 @@
       <c r="G87" s="10"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="8" customFormat="1">
       <c r="A88" s="9"/>
       <c r="B88" s="7"/>
       <c r="D88" s="4"/>
@@ -1668,7 +1728,7 @@
       <c r="G88" s="10"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="8" customFormat="1">
       <c r="A89" s="9"/>
       <c r="B89" s="7"/>
       <c r="D89" s="4"/>
@@ -1677,7 +1737,7 @@
       <c r="G89" s="10"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="8" customFormat="1">
       <c r="A90" s="9"/>
       <c r="B90" s="7"/>
       <c r="D90" s="4"/>
@@ -1686,7 +1746,7 @@
       <c r="G90" s="10"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="8" customFormat="1">
       <c r="A91" s="9"/>
       <c r="B91" s="7"/>
       <c r="D91" s="4"/>
@@ -1695,7 +1755,7 @@
       <c r="G91" s="10"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="8" customFormat="1">
       <c r="A92" s="9"/>
       <c r="B92" s="7"/>
       <c r="D92" s="4"/>
@@ -1704,7 +1764,7 @@
       <c r="G92" s="10"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="8" customFormat="1">
       <c r="A93" s="9"/>
       <c r="B93" s="7"/>
       <c r="D93" s="4"/>
@@ -1713,7 +1773,7 @@
       <c r="G93" s="10"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="8" customFormat="1">
       <c r="A94" s="9"/>
       <c r="B94" s="7"/>
       <c r="D94" s="4"/>
@@ -1722,7 +1782,7 @@
       <c r="G94" s="10"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="8" customFormat="1">
       <c r="A95" s="9"/>
       <c r="B95" s="7"/>
       <c r="D95" s="4"/>
@@ -1731,7 +1791,7 @@
       <c r="G95" s="10"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="8" customFormat="1">
       <c r="A96" s="9"/>
       <c r="B96" s="7"/>
       <c r="D96" s="4"/>
@@ -1740,7 +1800,7 @@
       <c r="G96" s="10"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="8" customFormat="1">
       <c r="A97" s="9"/>
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
@@ -1749,7 +1809,7 @@
       <c r="G97" s="10"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="8" customFormat="1">
       <c r="A98" s="9"/>
       <c r="B98" s="7"/>
       <c r="D98" s="4"/>
@@ -1758,7 +1818,7 @@
       <c r="G98" s="10"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="8" customFormat="1">
       <c r="A99" s="9"/>
       <c r="B99" s="7"/>
       <c r="D99" s="4"/>
@@ -1767,7 +1827,7 @@
       <c r="G99" s="10"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="8" customFormat="1">
       <c r="A100" s="9"/>
       <c r="B100" s="7"/>
       <c r="D100" s="4"/>
@@ -1776,7 +1836,7 @@
       <c r="G100" s="10"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="8" customFormat="1">
       <c r="A101" s="9"/>
       <c r="B101" s="7"/>
       <c r="D101" s="4"/>
@@ -1785,7 +1845,7 @@
       <c r="G101" s="10"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="8" customFormat="1">
       <c r="A102" s="9"/>
       <c r="B102" s="7"/>
       <c r="D102" s="4"/>
@@ -1793,13 +1853,13 @@
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -1829,24 +1889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/B_Source/sieuthixehoi/TaskList - Website Oto.xlsx
+++ b/B_Source/sieuthixehoi/TaskList - Website Oto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="8250"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -175,15 +175,92 @@
 - Sửa/Xóa</t>
     </r>
   </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Thay đổi thông tin phần footer (dựa trên card visit của KH)</t>
+  </si>
+  <si>
+    <t>Trang detail của sản phẩm cần phải load lên được ảnh và xóa bỏ bớt 1 số ô ảnh nhỏ nhỏ đi kèm (nếu ảnh ko có nhìu)</t>
+  </si>
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>Banner làm chạy 2 bên</t>
+  </si>
+  <si>
+    <t>Phần slider thì cần làm theo yêu cầu của Khách hàng (có 2 loại slider khi load page khác nhau)
+- Slide ở trang chủ để 3 ảnh : Spark VAN màu đỏ , Cruze đen , Lacetti bạc
+- Slide ở trang Chevrolet để như Trang chủ 
+- Slide trang Huyndai để 3 xe Tucson , Accent và Eon</t>
+  </si>
+  <si>
+    <t>Thiết kế lại Logo + banner trên cùng của KH (theo như card visit đã gửi)</t>
+  </si>
+  <si>
+    <t>Nhập liệu</t>
+  </si>
+  <si>
+    <t>- Màu của trang web có tông giống card visit (có khi phải change màu nền)</t>
+  </si>
+  <si>
+    <t>- Ở trang chủ Slide ảnh thay ảnh Lacetti = sản phẩm có logo Chev chứ k phải Logo Daewoo</t>
+  </si>
+  <si>
+    <t>- Trang chủ cho thêm thumbnails của các sản phẩm Chevrolet KH muốn làm nổi bật vào và hiện cả nút xem thêm</t>
+  </si>
+  <si>
+    <t>Front-end + Back-end</t>
+  </si>
+  <si>
+    <t>- Đổi phần Tư vấn : 2 danh mục con là Tư vấn mua xe và Tư vấn nội thất
+(thêm 1 cột trong DB để phân biệt cho tư vấn mua xe và tư vấn nội thất, cột này có giá trị là 0 hoặc 1, và khi admin add/edit thì show ra dropdownlist "Tư vấn nội thất", "Tư vấn mua xe")</t>
+  </si>
+  <si>
+    <t>Tạo thêm trang list các tư vấn: gồm 2 loại "Tư vấn mua xe" và "Tư vấn nội thất",</t>
+  </si>
+  <si>
+    <t>Các trang sẽ không hiện slide
+- Trang sản phẩm ( khi click vào menu sản phẩm), trang chi tiết sản phẩm
+- Trang tư vấn, tư vấn mua xe, tư vấn nội thất và trang chi tiết tư vấn
+- Trang liên hệ
+- Trang giới thiệu</t>
+  </si>
+  <si>
+    <t>Tuyết</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>Tạo thêm trang hiển thị chi tiết từng tư vấn (Trung đã làm, chỉ cần modify lại 1 ít)</t>
+  </si>
+  <si>
+    <t>Phần up ảnh để tạo slider cho front-end (quản lý Slide), [đã có nhiều module làm rồi, tham khảo thêm]</t>
+  </si>
+  <si>
+    <t>Khi click vào menu Sản phẩm/Chevrolet thì tất cả xe Chevrolet được hiển thị ra (cần cả làm paging)</t>
+  </si>
+  <si>
+    <t>Khi click vào menu Sản phẩm thì tất cả sản phẩm được hiển thị ra (cần làm cả paging)</t>
+  </si>
+  <si>
+    <t>Khi click vào menu Sản phẩm/Hyundai thì tất cả xe Hyundai được hiển thị ra (cần cả làm paging)</t>
+  </si>
+  <si>
+    <t>Cố gắng copy paste data nhìu nhìu sản phẩm (Hyundai và Chevrolet) từ trang sieuthixehoi.org, (add data lên trên website đã up lên)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -396,6 +473,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,11 +515,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,6 +616,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -561,6 +651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -736,14 +827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -757,89 +848,89 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1">
-      <c r="A4" s="21" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="171">
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -854,7 +945,7 @@
       <c r="G6" s="10"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="99.75">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -876,12 +967,12 @@
       <c r="G7" s="10"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.5">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -896,14 +987,14 @@
       <c r="G8" s="10"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="114">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -918,7 +1009,7 @@
       <c r="G9" s="10"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1">
+    <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -938,10 +1029,10 @@
       <c r="G10" s="10"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="28.5">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -956,7 +1047,7 @@
       <c r="G11" s="10"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1">
+    <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -974,14 +1065,14 @@
       <c r="G12" s="10"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="85.5">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -996,12 +1087,12 @@
       <c r="G13" s="10"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="28.5">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1016,14 +1107,14 @@
       <c r="G14" s="10"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1">
+    <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1038,12 +1129,12 @@
       <c r="G15" s="10"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1058,713 +1149,759 @@
       <c r="G16" s="10"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1">
-      <c r="A17" s="9">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>10</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1">
-      <c r="A18" s="9">
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>11</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1">
-      <c r="A19" s="9">
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>12</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1">
-      <c r="A20" s="9">
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" s="8" customFormat="1">
-      <c r="A21" s="9">
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1">
-      <c r="A22" s="9">
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" s="8" customFormat="1">
-      <c r="A23" s="9">
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1">
-      <c r="A24" s="9">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>17</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" s="8" customFormat="1">
-      <c r="A25" s="9">
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>18</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="9">
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>19</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="9">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>20</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" s="8" customFormat="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" s="8" customFormat="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" s="8" customFormat="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" s="8" customFormat="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" s="8" customFormat="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" s="8" customFormat="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" s="8" customFormat="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" s="8" customFormat="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" s="8" customFormat="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" s="8" customFormat="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" s="8" customFormat="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" s="8" customFormat="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" s="8" customFormat="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" s="8" customFormat="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="10"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" s="8" customFormat="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="10"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" s="8" customFormat="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" s="8" customFormat="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="10"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" s="8" customFormat="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="10"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" s="8" customFormat="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" s="8" customFormat="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" s="8" customFormat="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="10"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" s="8" customFormat="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" s="8" customFormat="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="10"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" s="8" customFormat="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" s="8" customFormat="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="10"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" s="8" customFormat="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="10"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" s="8" customFormat="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" s="8" customFormat="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" s="8" customFormat="1">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="10"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" s="8" customFormat="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" s="8" customFormat="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" s="8" customFormat="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" s="8" customFormat="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="10"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" s="8" customFormat="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" s="8" customFormat="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="10"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" s="8" customFormat="1">
-      <c r="A71" s="9"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="10"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" s="8" customFormat="1">
-      <c r="A72" s="9"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="10"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" s="8" customFormat="1">
-      <c r="A73" s="9"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="10"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" s="8" customFormat="1">
-      <c r="A74" s="9"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="10"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" s="8" customFormat="1">
-      <c r="A75" s="9"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="10"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" s="8" customFormat="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="10"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" s="8" customFormat="1">
-      <c r="A77" s="9"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="10"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" s="8" customFormat="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="10"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" s="8" customFormat="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" s="8" customFormat="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="7"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" s="8" customFormat="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="7"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" s="8" customFormat="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="7"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" s="8" customFormat="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="7"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="10"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" s="8" customFormat="1">
-      <c r="A84" s="9"/>
-      <c r="B84" s="7"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="10"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" s="8" customFormat="1">
-      <c r="A85" s="9"/>
-      <c r="B85" s="7"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="10"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" s="8" customFormat="1">
-      <c r="A86" s="9"/>
-      <c r="B86" s="7"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="10"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" s="8" customFormat="1">
-      <c r="A87" s="9"/>
-      <c r="B87" s="7"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="10"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" s="8" customFormat="1">
-      <c r="A88" s="9"/>
-      <c r="B88" s="7"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="10"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" s="8" customFormat="1">
-      <c r="A89" s="9"/>
-      <c r="B89" s="7"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="10"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" s="8" customFormat="1">
-      <c r="A90" s="9"/>
-      <c r="B90" s="7"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="10"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" s="8" customFormat="1">
-      <c r="A91" s="9"/>
-      <c r="B91" s="7"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="10"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" s="8" customFormat="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="10"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" s="8" customFormat="1">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>20</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>21.2</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>22.8</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>23.6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="28"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="7"/>
       <c r="D93" s="4"/>
@@ -1773,7 +1910,7 @@
       <c r="G93" s="10"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" s="8" customFormat="1">
+    <row r="94" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="7"/>
       <c r="D94" s="4"/>
@@ -1782,7 +1919,7 @@
       <c r="G94" s="10"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" s="8" customFormat="1">
+    <row r="95" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="7"/>
       <c r="D95" s="4"/>
@@ -1791,7 +1928,7 @@
       <c r="G95" s="10"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" s="8" customFormat="1">
+    <row r="96" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="7"/>
       <c r="D96" s="4"/>
@@ -1800,7 +1937,7 @@
       <c r="G96" s="10"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1">
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
@@ -1809,7 +1946,7 @@
       <c r="G97" s="10"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="7"/>
       <c r="D98" s="4"/>
@@ -1818,7 +1955,7 @@
       <c r="G98" s="10"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1">
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="7"/>
       <c r="D99" s="4"/>
@@ -1827,7 +1964,7 @@
       <c r="G99" s="10"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="7"/>
       <c r="D100" s="4"/>
@@ -1836,7 +1973,7 @@
       <c r="G100" s="10"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="7"/>
       <c r="D101" s="4"/>
@@ -1845,7 +1982,7 @@
       <c r="G101" s="10"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="7"/>
       <c r="D102" s="4"/>
@@ -1853,13 +1990,13 @@
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G105" s="2"/>
     </row>
   </sheetData>
@@ -1877,7 +2014,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D102">
-      <formula1>"Trung,Tuyết"</formula1>
+      <formula1>"Trung,Tuyết,Mạnh"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I102">
       <formula1>"OK, Rejected"</formula1>
@@ -1889,24 +2026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
